--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1307.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1307.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.009683491829595</v>
+        <v>1.088873982429504</v>
       </c>
       <c r="B1">
-        <v>2.525922264237843</v>
+        <v>2.15859842300415</v>
       </c>
       <c r="C1">
-        <v>5.511996600095813</v>
+        <v>9.295186996459961</v>
       </c>
       <c r="D1">
-        <v>2.205805601384234</v>
+        <v>1.050938725471497</v>
       </c>
       <c r="E1">
-        <v>1.255468369326768</v>
+        <v>1.169913291931152</v>
       </c>
     </row>
   </sheetData>
